--- a/src/nodes.xlsx
+++ b/src/nodes.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="28">
   <si>
     <t>type</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>customer_id</t>
   </si>
 </sst>
 </file>
@@ -723,10 +726,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,7 +759,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>0</v>
@@ -770,7 +773,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>21</v>
@@ -784,21 +787,21 @@
         <v>22</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>0</v>
@@ -809,10 +812,10 @@
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>21</v>
@@ -823,21 +826,60 @@
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="C8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -860,57 +902,57 @@
     <row r="30" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="31" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="32" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-    </row>
+    <row r="33" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
     <row r="37" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+    </row>
     <row r="43" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+    </row>
     <row r="49" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-    </row>
+    <row r="53" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+    </row>
     <row r="57" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="58" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -925,55 +967,58 @@
     <row r="68" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="69" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="70" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-    </row>
+    <row r="71" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="72" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+    </row>
     <row r="75" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="76" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="77" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-    </row>
+    <row r="78" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
     </row>
-    <row r="82" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+    </row>
+    <row r="85" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/nodes.xlsx
+++ b/src/nodes.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="29">
   <si>
     <t>type</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>customer_id</t>
+  </si>
+  <si>
+    <t>invoice_id</t>
   </si>
 </sst>
 </file>
@@ -726,10 +729,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,10 +843,10 @@
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>0</v>
@@ -854,10 +857,10 @@
     </row>
     <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>21</v>
@@ -868,21 +871,60 @@
     </row>
     <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="C11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -905,55 +947,55 @@
     <row r="33" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+    </row>
     <row r="40" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+    </row>
     <row r="46" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+    </row>
     <row r="50" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="53" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+    </row>
     <row r="58" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="60" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -970,23 +1012,18 @@
     <row r="71" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="72" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-    </row>
-    <row r="75" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+    </row>
     <row r="76" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="77" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="78" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="80" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-    </row>
+    <row r="81" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
@@ -1005,20 +1042,26 @@
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
     </row>
-    <row r="85" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+    </row>
     <row r="86" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="87" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
+    <row r="88" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/nodes.xlsx
+++ b/src/nodes.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="30">
   <si>
     <t>type</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>invoice_id</t>
+  </si>
+  <si>
+    <t>preinvoice</t>
   </si>
 </sst>
 </file>
@@ -732,7 +735,7 @@
   <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,9 +928,48 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="17" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
